--- a/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1304424278239565</v>
+        <v>0.1293696050354272</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1021308717401415</v>
+        <v>0.1037417317293925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1135705934787026</v>
+        <v>0.1173159037896796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1218635033918613</v>
+        <v>0.1265692353655616</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1586685579479181</v>
+        <v>0.1588391077120854</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2274181071657659</v>
+        <v>0.2261147713573253</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1516811573063564</v>
+        <v>0.1527691107802335</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1647451352561163</v>
+        <v>0.1659723383650741</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1506487302332271</v>
+        <v>0.1523996161340227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1699255049038022</v>
+        <v>0.1718292733647999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1405312846870877</v>
+        <v>0.1397944308012136</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1523981040993614</v>
+        <v>0.1528217205211024</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1834358322296665</v>
+        <v>0.1838911473761152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1505892697563949</v>
+        <v>0.153460061693906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1691624402454967</v>
+        <v>0.1701346388867668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1795576737819028</v>
+        <v>0.1769585576555572</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2131777957079905</v>
+        <v>0.2204209471974303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2956844060635331</v>
+        <v>0.2956492145509312</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2124864320664873</v>
+        <v>0.2120374857597685</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2074274858273158</v>
+        <v>0.2095251696169621</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1909486854087458</v>
+        <v>0.1927403204355736</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2159850593969561</v>
+        <v>0.2133667683932428</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1795954600014628</v>
+        <v>0.1789574129022843</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1854656180956744</v>
+        <v>0.1890523516039357</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1550225995370143</v>
+        <v>0.1530593475193105</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.139547639638436</v>
+        <v>0.1406412517797948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0853741129383431</v>
+        <v>0.08452869326679861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08703716643630986</v>
+        <v>0.08784540085111227</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2127925126021241</v>
+        <v>0.211740760698547</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.208537719777801</v>
+        <v>0.2081635303258671</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1280341948777096</v>
+        <v>0.1286512942368602</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1604092561909664</v>
+        <v>0.1611721832215661</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1892010913561102</v>
+        <v>0.1899080810641481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.18131644314658</v>
+        <v>0.1787694858354067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1149727260518618</v>
+        <v>0.1152617287905853</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1292348501288963</v>
+        <v>0.1291088205002339</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2032721239787667</v>
+        <v>0.204596312320145</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1881774328081748</v>
+        <v>0.1899081161114668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1254343045408965</v>
+        <v>0.1264524735370827</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1252287462552865</v>
+        <v>0.1242882490432419</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2659980645466108</v>
+        <v>0.2669298756633899</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2634073337488876</v>
+        <v>0.2625747194197392</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.175059804478076</v>
+        <v>0.1762532124340892</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1997541343061349</v>
+        <v>0.2009856152588178</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2272381156715984</v>
+        <v>0.2266222113950027</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2168720653659165</v>
+        <v>0.2181658738181745</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1445687152379724</v>
+        <v>0.1460263823040605</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1575710826021766</v>
+        <v>0.1571287016138504</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1044962577043675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1404083412514379</v>
+        <v>0.1404083412514378</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2308313382932119</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.142851524909076</v>
+        <v>0.1412092680251697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1239211140739843</v>
+        <v>0.1277434488088416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08265628899681313</v>
+        <v>0.08501137316834859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1141252955926669</v>
+        <v>0.113875343662692</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2013661488507043</v>
+        <v>0.2007499356796087</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.224791381827645</v>
+        <v>0.2212814634705895</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1395063833420393</v>
+        <v>0.1378351924828108</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1652913924756638</v>
+        <v>0.1645090092896034</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1818048754968906</v>
+        <v>0.1789790362286851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1826960280415182</v>
+        <v>0.1830828693426659</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1193231178288563</v>
+        <v>0.1183791734647153</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1461925194636335</v>
+        <v>0.1460522222263198</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2049352697736809</v>
+        <v>0.2018617103064013</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1781419635261411</v>
+        <v>0.1783748170625348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1303265540777298</v>
+        <v>0.1322418702713149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1676521164904462</v>
+        <v>0.1692914432409224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2616062687774426</v>
+        <v>0.2636015050327853</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2892909709488577</v>
+        <v>0.2864527394344686</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1952680434324008</v>
+        <v>0.1929038040142724</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2185772864626488</v>
+        <v>0.2138976072216622</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2247974087297905</v>
+        <v>0.2228212376024629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2253966630403398</v>
+        <v>0.2261029322934991</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1541322755230119</v>
+        <v>0.1560716415469103</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.185197281098795</v>
+        <v>0.1828753282599701</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1448777898338821</v>
+        <v>0.147002705468478</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1560331373465654</v>
+        <v>0.1580309024788419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1030400337573572</v>
+        <v>0.1024895933626772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.124385187879202</v>
+        <v>0.1250525888880454</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2042999533633357</v>
+        <v>0.2053370181758928</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2598980135005995</v>
+        <v>0.2573859161177454</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1512017974129938</v>
+        <v>0.1485608680178056</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2000411050678233</v>
+        <v>0.2006417343970867</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1843966621413435</v>
+        <v>0.183993308538876</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2171139346886204</v>
+        <v>0.2188807016018019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1328374424229796</v>
+        <v>0.1330911111929615</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1710645687893596</v>
+        <v>0.1707406963488853</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1941940789356599</v>
+        <v>0.194704659329706</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.207824110175767</v>
+        <v>0.209041213453898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1453218141798474</v>
+        <v>0.1459161826170662</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1722971841022118</v>
+        <v>0.1707736088738228</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2577965816642454</v>
+        <v>0.2581183076514386</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.315835463109737</v>
+        <v>0.3159762554046123</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2004423288006076</v>
+        <v>0.1980893730888839</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2419953516403943</v>
+        <v>0.2428043469536778</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2198041710491973</v>
+        <v>0.2195058454828187</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2567259485303752</v>
+        <v>0.2594605905558457</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1656434835037342</v>
+        <v>0.1661446320064834</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2036781710630078</v>
+        <v>0.2024828485806266</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1571331394633096</v>
+        <v>0.1563629429276997</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1461414882835254</v>
+        <v>0.1457447627683338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.105315346709562</v>
+        <v>0.1062211172855386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1233279506066189</v>
+        <v>0.1221636551430526</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.210384891240275</v>
+        <v>0.2091322624071572</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2437102575836465</v>
+        <v>0.2434655870396273</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1542823295947563</v>
+        <v>0.1543303642903767</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1830116646000415</v>
+        <v>0.184231806500061</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1874173572021005</v>
+        <v>0.1877449710806427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1981024522088322</v>
+        <v>0.199139484007809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.133491249457183</v>
+        <v>0.1337071787046353</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1574095240172502</v>
+        <v>0.1569161472585161</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1824861217724765</v>
+        <v>0.18335927958011</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1722565762043962</v>
+        <v>0.1707492341819081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1275592171481791</v>
+        <v>0.1271504581395674</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1464037767005659</v>
+        <v>0.1460348062078742</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2384856621983439</v>
+        <v>0.2383821800776008</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2740916696462549</v>
+        <v>0.2750677255984657</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1799856032469812</v>
+        <v>0.1797888831277621</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2045589053288415</v>
+        <v>0.2061741580643964</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2081368771182676</v>
+        <v>0.2077324527852897</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2191303349972543</v>
+        <v>0.2188135744308203</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1505709002504345</v>
+        <v>0.1508164330367461</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1738022761110998</v>
+        <v>0.1731799728857384</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>90529</v>
+        <v>89784</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>71642</v>
+        <v>72772</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>76507</v>
+        <v>79030</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84067</v>
+        <v>87313</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>109220</v>
+        <v>109337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>158306</v>
+        <v>157398</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>101662</v>
+        <v>102391</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120777</v>
+        <v>121676</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>208251</v>
+        <v>210672</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>237483</v>
+        <v>240144</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>188858</v>
+        <v>187868</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>216856</v>
+        <v>217459</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>127307</v>
+        <v>127623</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>105634</v>
+        <v>107648</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>113957</v>
+        <v>114612</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>123867</v>
+        <v>122074</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>146741</v>
+        <v>151727</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>205826</v>
+        <v>205801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>142415</v>
+        <v>142114</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>152068</v>
+        <v>153606</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>263960</v>
+        <v>266437</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>301855</v>
+        <v>298195</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>241356</v>
+        <v>240498</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>263909</v>
+        <v>269013</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>149101</v>
+        <v>147212</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>141894</v>
+        <v>143006</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87289</v>
+        <v>86425</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>91295</v>
+        <v>92143</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>206067</v>
+        <v>205048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>214811</v>
+        <v>214425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>133529</v>
+        <v>134172</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>171698</v>
+        <v>172514</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>365195</v>
+        <v>366559</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>371136</v>
+        <v>365923</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>237458</v>
+        <v>238055</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>273886</v>
+        <v>273619</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>195507</v>
+        <v>196781</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191342</v>
+        <v>193102</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128248</v>
+        <v>129289</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>131355</v>
+        <v>130368</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>257591</v>
+        <v>258493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>271331</v>
+        <v>270473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>182572</v>
+        <v>183817</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>213811</v>
+        <v>215129</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>438613</v>
+        <v>437425</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>443915</v>
+        <v>446563</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>298584</v>
+        <v>301595</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>333939</v>
+        <v>333001</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>96926</v>
+        <v>95812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93885</v>
+        <v>96781</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>62782</v>
+        <v>64571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>91651</v>
+        <v>91450</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>137702</v>
+        <v>137281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>173590</v>
+        <v>170880</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>109174</v>
+        <v>107866</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>134259</v>
+        <v>133624</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>247682</v>
+        <v>243832</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>279498</v>
+        <v>280090</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>184011</v>
+        <v>182555</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>236149</v>
+        <v>235923</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>139050</v>
+        <v>136965</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134964</v>
+        <v>135141</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>98990</v>
+        <v>100445</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>134637</v>
+        <v>135953</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>178897</v>
+        <v>180262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>223399</v>
+        <v>221207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>152811</v>
+        <v>150961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>177541</v>
+        <v>173740</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>306253</v>
+        <v>303561</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>344824</v>
+        <v>345904</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>237691</v>
+        <v>240682</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>299155</v>
+        <v>295404</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>136507</v>
+        <v>138509</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147879</v>
+        <v>149772</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96501</v>
+        <v>95986</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>123149</v>
+        <v>123810</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>212188</v>
+        <v>213265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>273387</v>
+        <v>270745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>157659</v>
+        <v>154906</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>223741</v>
+        <v>224412</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>365259</v>
+        <v>364460</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>434150</v>
+        <v>437683</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>262919</v>
+        <v>263421</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>360696</v>
+        <v>360013</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>182974</v>
+        <v>183455</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>196963</v>
+        <v>198117</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>136100</v>
+        <v>136656</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>170585</v>
+        <v>169076</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>267751</v>
+        <v>268085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>332228</v>
+        <v>332376</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>209003</v>
+        <v>206550</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>270665</v>
+        <v>271570</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>435396</v>
+        <v>434805</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>513359</v>
+        <v>518828</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>327850</v>
+        <v>328842</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>429463</v>
+        <v>426942</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>514853</v>
+        <v>512330</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>500337</v>
+        <v>498979</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>357249</v>
+        <v>360321</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>435581</v>
+        <v>431469</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>710932</v>
+        <v>706699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>865247</v>
+        <v>864378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>545916</v>
+        <v>546086</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>683405</v>
+        <v>687962</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1247401</v>
+        <v>1249582</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1381559</v>
+        <v>1388791</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>925175</v>
+        <v>926672</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1143755</v>
+        <v>1140170</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>597924</v>
+        <v>600785</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>589746</v>
+        <v>584586</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>432704</v>
+        <v>431317</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>517083</v>
+        <v>515780</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>805890</v>
+        <v>805540</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>973110</v>
+        <v>976576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>636866</v>
+        <v>636169</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>763867</v>
+        <v>769899</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1385305</v>
+        <v>1382613</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1528206</v>
+        <v>1525997</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1043547</v>
+        <v>1045249</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1262867</v>
+        <v>1258345</v>
       </c>
     </row>
     <row r="24">
